--- a/data/trans_orig/P57_AF_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>210879</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>197663</v>
+        <v>197260</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>223294</v>
+        <v>224465</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.774796001245606</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7262407379265229</v>
+        <v>0.7247579125991189</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8204130254102351</v>
+        <v>0.8247159312238163</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>208</v>
@@ -765,19 +765,19 @@
         <v>224290</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>212626</v>
+        <v>212937</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>233956</v>
+        <v>234280</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8598826847324432</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8151645227597668</v>
+        <v>0.8163554678999341</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8969399167584595</v>
+        <v>0.8981830734179947</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>413</v>
@@ -786,19 +786,19 @@
         <v>435169</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>415275</v>
+        <v>417211</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>451291</v>
+        <v>452256</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8164346442350583</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7791116739365875</v>
+        <v>0.7827428597633639</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8466826932063488</v>
+        <v>0.8484926142640536</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>61294</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48879</v>
+        <v>47708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>74510</v>
+        <v>74913</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.225203998754394</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1795869745897652</v>
+        <v>0.1752840687761837</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2737592620734772</v>
+        <v>0.275242087400881</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -836,19 +836,19 @@
         <v>36548</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26882</v>
+        <v>26558</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48212</v>
+        <v>47901</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1401173152675567</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1030600832415406</v>
+        <v>0.1018169265820052</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.184835477240233</v>
+        <v>0.183644532100066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>102</v>
@@ -857,19 +857,19 @@
         <v>97842</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>81720</v>
+        <v>80755</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>117736</v>
+        <v>115800</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1835653557649417</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1533173067936512</v>
+        <v>0.1515073857359465</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2208883260634125</v>
+        <v>0.2172571402366361</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>292046</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>271155</v>
+        <v>270238</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>313346</v>
+        <v>315101</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5957210657318345</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5531077061041522</v>
+        <v>0.5512377801862102</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6391707215698468</v>
+        <v>0.6427489694946674</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>316</v>
@@ -982,19 +982,19 @@
         <v>318618</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>298117</v>
+        <v>296305</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>340617</v>
+        <v>338849</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6322426143308357</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5915619659679117</v>
+        <v>0.587967004370869</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6758965040188094</v>
+        <v>0.6723881965036352</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>594</v>
@@ -1003,19 +1003,19 @@
         <v>610664</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>576619</v>
+        <v>578652</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>642041</v>
+        <v>637826</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6142336511559258</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5799901347481479</v>
+        <v>0.5820348406548036</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6457942944610028</v>
+        <v>0.6415550198666945</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>198193</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>176893</v>
+        <v>175138</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>219084</v>
+        <v>220001</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4042789342681655</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3608292784301532</v>
+        <v>0.3572510305053325</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4468922938958478</v>
+        <v>0.4487622198137899</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>183</v>
@@ -1053,19 +1053,19 @@
         <v>185331</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>163332</v>
+        <v>165100</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>205832</v>
+        <v>207644</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3677573856691642</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3241034959811906</v>
+        <v>0.327611803496365</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4084380340320885</v>
+        <v>0.412032995629131</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>368</v>
@@ -1074,19 +1074,19 @@
         <v>383524</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>352147</v>
+        <v>356362</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>417569</v>
+        <v>415536</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3857663488440743</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3542057055389974</v>
+        <v>0.3584449801333057</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4200098652518522</v>
+        <v>0.417965159345197</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>148827</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>130449</v>
+        <v>130769</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165776</v>
+        <v>167173</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4667667349641059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4091294414740564</v>
+        <v>0.4101331957409615</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5199264187498892</v>
+        <v>0.5243071227130358</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>140</v>
@@ -1199,19 +1199,19 @@
         <v>137824</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>121294</v>
+        <v>119256</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>155978</v>
+        <v>155307</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4109082435131173</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3616281316973055</v>
+        <v>0.3555520765719587</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4650331388955725</v>
+        <v>0.463033531031622</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>286</v>
@@ -1220,19 +1220,19 @@
         <v>286650</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>262526</v>
+        <v>257951</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>313468</v>
+        <v>309433</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4381303087824578</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.401257464042051</v>
+        <v>0.3942654673158856</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4791191944413778</v>
+        <v>0.4729519862157288</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>170019</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>153070</v>
+        <v>151673</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>188397</v>
+        <v>188077</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5332332650358941</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4800735812501108</v>
+        <v>0.4756928772869642</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5908705585259435</v>
+        <v>0.5898668042590386</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>195</v>
@@ -1270,19 +1270,19 @@
         <v>197588</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>179434</v>
+        <v>180105</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>214118</v>
+        <v>216156</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5890917564868826</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5349668611044275</v>
+        <v>0.5369664689683779</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6383718683026945</v>
+        <v>0.6444479234280412</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>359</v>
@@ -1291,19 +1291,19 @@
         <v>367608</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>340790</v>
+        <v>344825</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>391732</v>
+        <v>396307</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5618696912175423</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5208808055586226</v>
+        <v>0.5270480137842712</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.598742535957949</v>
+        <v>0.6057345326841148</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>229655</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>211599</v>
+        <v>210443</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>247073</v>
+        <v>246388</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6402939673672495</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5899518721290159</v>
+        <v>0.5867298533986244</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6888574334636922</v>
+        <v>0.6869467945946228</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>235</v>
@@ -1416,19 +1416,19 @@
         <v>228544</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>210741</v>
+        <v>210149</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>247099</v>
+        <v>245385</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6152666691180676</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5673366128871643</v>
+        <v>0.5657432084623391</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6652169608651558</v>
+        <v>0.6606027148206569</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>468</v>
@@ -1437,19 +1437,19 @@
         <v>458199</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>433220</v>
+        <v>433309</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>483972</v>
+        <v>482597</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.627561198626321</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5933492514407697</v>
+        <v>0.5934712705599025</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6628598183032499</v>
+        <v>0.6609769115948818</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>129016</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>111598</v>
+        <v>112283</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>147072</v>
+        <v>148228</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3597060326327505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3111425665363079</v>
+        <v>0.3130532054053773</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4100481278709844</v>
+        <v>0.4132701466013757</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>149</v>
@@ -1487,19 +1487,19 @@
         <v>142912</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>124357</v>
+        <v>126071</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>160715</v>
+        <v>161307</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3847333308819324</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3347830391348442</v>
+        <v>0.339397285179343</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4326633871128356</v>
+        <v>0.4342567915376609</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>278</v>
@@ -1508,19 +1508,19 @@
         <v>271928</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>246155</v>
+        <v>247530</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>296907</v>
+        <v>296818</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.372438801373679</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3371401816967502</v>
+        <v>0.3390230884051181</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4066507485592303</v>
+        <v>0.4065287294400975</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>139042</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>125968</v>
+        <v>124789</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>153271</v>
+        <v>150666</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.68389851293919</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6195942545364492</v>
+        <v>0.6137904659197738</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7538862370076489</v>
+        <v>0.7410707843659829</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>146</v>
@@ -1633,19 +1633,19 @@
         <v>153588</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139058</v>
+        <v>140148</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>165483</v>
+        <v>165050</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.743146549572741</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6728385034859953</v>
+        <v>0.6781127114739087</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8007002882254064</v>
+        <v>0.7986054675837491</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>290</v>
@@ -1654,19 +1654,19 @@
         <v>292630</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>272080</v>
+        <v>274956</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>309768</v>
+        <v>312773</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7137656793249645</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6636406793749733</v>
+        <v>0.6706557942055127</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7555658609856978</v>
+        <v>0.7628953943902389</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>64266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50037</v>
+        <v>52642</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>77340</v>
+        <v>78519</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3161014870608099</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2461137629923511</v>
+        <v>0.2589292156340167</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3804057454635508</v>
+        <v>0.3862095340802261</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -1704,19 +1704,19 @@
         <v>53085</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41190</v>
+        <v>41623</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>67615</v>
+        <v>66525</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.256853450427259</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1992997117745936</v>
+        <v>0.2013945324162509</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3271614965140048</v>
+        <v>0.321887288526091</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>113</v>
@@ -1725,19 +1725,19 @@
         <v>117351</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>100213</v>
+        <v>97208</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>137901</v>
+        <v>135025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2862343206750355</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2444341390143024</v>
+        <v>0.2371046056097613</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3363593206250269</v>
+        <v>0.3293442057944875</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>159555</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>143516</v>
+        <v>142890</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>174645</v>
+        <v>175506</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5891743943774577</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5299498197916038</v>
+        <v>0.5276388714513562</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6448978121823001</v>
+        <v>0.6480743903839481</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>149</v>
@@ -1850,19 +1850,19 @@
         <v>153930</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>137235</v>
+        <v>137913</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>168649</v>
+        <v>170609</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5534171109203091</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4933955307428014</v>
+        <v>0.4958316760599161</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6063356458972313</v>
+        <v>0.6133821507906848</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>308</v>
@@ -1871,19 +1871,19 @@
         <v>313485</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>290556</v>
+        <v>289979</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>336367</v>
+        <v>335092</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5710569279594815</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5292890478465583</v>
+        <v>0.5282390222888529</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6127410545710481</v>
+        <v>0.6104173820615888</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>111256</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>96166</v>
+        <v>95305</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>127295</v>
+        <v>127921</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4108256056225423</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3551021878176997</v>
+        <v>0.351925609616052</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4700501802083959</v>
+        <v>0.4723611285486437</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>121</v>
@@ -1921,19 +1921,19 @@
         <v>124214</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>109495</v>
+        <v>107535</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>140909</v>
+        <v>140231</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4465828890796909</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3936643541027688</v>
+        <v>0.386617849209315</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5066044692571987</v>
+        <v>0.5041683239400838</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>228</v>
@@ -1942,19 +1942,19 @@
         <v>235470</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>212588</v>
+        <v>213863</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>258399</v>
+        <v>258976</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4289430720405185</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3872589454289519</v>
+        <v>0.3895826179384113</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4707109521534418</v>
+        <v>0.4717609777111471</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>264879</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>240326</v>
+        <v>238302</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>290758</v>
+        <v>291340</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4306783632185684</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3907570172840064</v>
+        <v>0.3874654604756427</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4727563066406554</v>
+        <v>0.4737022510085985</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>227</v>
@@ -2067,19 +2067,19 @@
         <v>228046</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>204053</v>
+        <v>205424</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>250888</v>
+        <v>252443</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3578655274928016</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3202140740208899</v>
+        <v>0.3223657588631459</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3937104506686795</v>
+        <v>0.3961508176496211</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>487</v>
@@ -2088,19 +2088,19 @@
         <v>492925</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>459546</v>
+        <v>459599</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>528716</v>
+        <v>529002</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.393626188732463</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3669719021054673</v>
+        <v>0.3670139962564242</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4222077329016831</v>
+        <v>0.4224358196192379</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>350148</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>324269</v>
+        <v>323687</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>374701</v>
+        <v>376725</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5693216367814316</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5272436933593445</v>
+        <v>0.5262977489914015</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6092429827159935</v>
+        <v>0.6125345395243573</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>393</v>
@@ -2138,19 +2138,19 @@
         <v>409193</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>386351</v>
+        <v>384796</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>433186</v>
+        <v>431815</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6421344725071985</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6062895493313201</v>
+        <v>0.6038491823503789</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6797859259791095</v>
+        <v>0.677634241136854</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>731</v>
@@ -2159,19 +2159,19 @@
         <v>759341</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>723550</v>
+        <v>723264</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>792720</v>
+        <v>792667</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6063738112675371</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5777922670983168</v>
+        <v>0.5775641803807621</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6330280978945326</v>
+        <v>0.6329860037435758</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>541178</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>515637</v>
+        <v>515444</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>565134</v>
+        <v>564600</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7284162175189551</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6940383702219858</v>
+        <v>0.6937789309285558</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7606610485039851</v>
+        <v>0.7599428488268564</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>588</v>
@@ -2284,19 +2284,19 @@
         <v>623540</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>598312</v>
+        <v>599694</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>645315</v>
+        <v>644790</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7958277729362752</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7636289889115665</v>
+        <v>0.7653926552498809</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8236197489869638</v>
+        <v>0.8229495087592884</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1124</v>
@@ -2305,19 +2305,19 @@
         <v>1164717</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1130147</v>
+        <v>1129719</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1197578</v>
+        <v>1197023</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7630176082919671</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7403704701091438</v>
+        <v>0.7400900877944049</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7845448998150156</v>
+        <v>0.7841816298202821</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>201773</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>177817</v>
+        <v>178351</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>227314</v>
+        <v>227507</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2715837824810449</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2393389514960148</v>
+        <v>0.2400571511731436</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.305961629778014</v>
+        <v>0.3062210690714443</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>157</v>
@@ -2355,19 +2355,19 @@
         <v>159971</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>138196</v>
+        <v>138721</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>185199</v>
+        <v>183817</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2041722270637249</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1763802510130362</v>
+        <v>0.1770504912407116</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2363710110884335</v>
+        <v>0.2346073447501188</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>356</v>
@@ -2376,19 +2376,19 @@
         <v>361745</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>328884</v>
+        <v>329439</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>396315</v>
+        <v>396743</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2369823917080329</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2154551001849843</v>
+        <v>0.2158183701797178</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2596295298908562</v>
+        <v>0.2599099122055946</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>1986059</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1929173</v>
+        <v>1927939</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2041506</v>
+        <v>2043384</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6069814500043046</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5895959911590974</v>
+        <v>0.5892186302267477</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6239272982458312</v>
+        <v>0.6245011751578173</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2009</v>
@@ -2501,19 +2501,19 @@
         <v>2068380</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2015106</v>
+        <v>2015592</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2128276</v>
+        <v>2128545</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6124500715253164</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5966757586258876</v>
+        <v>0.596819636909563</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.63018528379203</v>
+        <v>0.6302650562343636</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3970</v>
@@ -2522,19 +2522,19 @@
         <v>4054439</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3969270</v>
+        <v>3972379</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4133505</v>
+        <v>4133309</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6097590196875528</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5969502185631814</v>
+        <v>0.5974177738967191</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.621649986495961</v>
+        <v>0.6216204807606376</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1285967</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1230520</v>
+        <v>1228642</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1342853</v>
+        <v>1344087</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3930185499956954</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3760727017541687</v>
+        <v>0.3754988248421827</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4104040088409021</v>
+        <v>0.4107813697732522</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1286</v>
@@ -2572,19 +2572,19 @@
         <v>1308842</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1248946</v>
+        <v>1248677</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1362116</v>
+        <v>1361630</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3875499284746836</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3698147162079696</v>
+        <v>0.3697349437656364</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4033242413741124</v>
+        <v>0.4031803630904368</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2535</v>
@@ -2593,19 +2593,19 @@
         <v>2594809</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2515743</v>
+        <v>2515939</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2679978</v>
+        <v>2676869</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3902409803124472</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3783500135040389</v>
+        <v>0.3783795192393626</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4030497814368185</v>
+        <v>0.402582226103281</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>188443</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>170938</v>
+        <v>171646</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>203947</v>
+        <v>205561</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6583920018685867</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5972329639967404</v>
+        <v>0.5997044149619978</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7125600667368038</v>
+        <v>0.7182014657409536</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>190</v>
@@ -2962,19 +2962,19 @@
         <v>213016</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>198207</v>
+        <v>196871</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>228192</v>
+        <v>226817</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.765308908801085</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.71210212704267</v>
+        <v>0.7073051462777021</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8198313392333957</v>
+        <v>0.8148910651427149</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>373</v>
@@ -2983,19 +2983,19 @@
         <v>401459</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>379065</v>
+        <v>378575</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>423721</v>
+        <v>426216</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7111046385705471</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6714380439799782</v>
+        <v>0.6705697894703671</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7505374902407902</v>
+        <v>0.7549556573890134</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>97774</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>82270</v>
+        <v>80656</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>115279</v>
+        <v>114571</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3416079981314133</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2874399332631964</v>
+        <v>0.2817985342590467</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4027670360032597</v>
+        <v>0.4002955850380024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>59</v>
@@ -3033,19 +3033,19 @@
         <v>65324</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50148</v>
+        <v>51523</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>80133</v>
+        <v>81469</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2346910911989149</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1801686607666043</v>
+        <v>0.1851089348572854</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2878978729573299</v>
+        <v>0.2926948537222981</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>149</v>
@@ -3054,19 +3054,19 @@
         <v>163098</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>140836</v>
+        <v>138341</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>185492</v>
+        <v>185982</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2888953614294529</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2494625097592101</v>
+        <v>0.2450443426109868</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3285619560200221</v>
+        <v>0.3294302105296337</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>255245</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>233020</v>
+        <v>233063</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>280043</v>
+        <v>279689</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5059270334055271</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4618736396481949</v>
+        <v>0.4619581740838171</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5550787553561451</v>
+        <v>0.5543769290680196</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>250</v>
@@ -3179,19 +3179,19 @@
         <v>270182</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>246853</v>
+        <v>247199</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>294126</v>
+        <v>295126</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5158458481080408</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4713053241550058</v>
+        <v>0.4719661953756317</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5615616256174081</v>
+        <v>0.5634703451318971</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>485</v>
@@ -3200,19 +3200,19 @@
         <v>525428</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>493679</v>
+        <v>490764</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>560315</v>
+        <v>558880</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5109793059280536</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.480103778606439</v>
+        <v>0.4772686368032835</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5449075004429578</v>
+        <v>0.5435119108221333</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>249265</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>224467</v>
+        <v>224821</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>271490</v>
+        <v>271447</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4940729665944729</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4449212446438548</v>
+        <v>0.4456230709319804</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5381263603518051</v>
+        <v>0.538041825916183</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>230</v>
@@ -3250,19 +3250,19 @@
         <v>253583</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>229639</v>
+        <v>228639</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>276912</v>
+        <v>276566</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4841541518919592</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4384383743825919</v>
+        <v>0.4365296548681029</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5286946758449942</v>
+        <v>0.5280338046243682</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>466</v>
@@ -3271,19 +3271,19 @@
         <v>502848</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>467961</v>
+        <v>469396</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>534597</v>
+        <v>537512</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4890206940719464</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4550924995570422</v>
+        <v>0.4564880891778666</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5198962213935611</v>
+        <v>0.5227313631967165</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>190140</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171329</v>
+        <v>172164</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>206668</v>
+        <v>207752</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5867683102197618</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5287193581133891</v>
+        <v>0.5312939453940952</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6377748675843851</v>
+        <v>0.6411187275411026</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>208</v>
@@ -3396,19 +3396,19 @@
         <v>226978</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>207555</v>
+        <v>209231</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>243671</v>
+        <v>244181</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6698672262302139</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6125448505833107</v>
+        <v>0.6174905532914761</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7191296555825009</v>
+        <v>0.7206346878046106</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>395</v>
@@ -3417,19 +3417,19 @@
         <v>417118</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>392326</v>
+        <v>390666</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>441607</v>
+        <v>441288</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6292450849298173</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5918443284319272</v>
+        <v>0.5893402117139054</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6661873064798104</v>
+        <v>0.6657058791664864</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>133906</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>117378</v>
+        <v>116294</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>152717</v>
+        <v>151882</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4132316897802382</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.362225132415615</v>
+        <v>0.3588812724588973</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4712806418866109</v>
+        <v>0.4687060546059047</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>107</v>
@@ -3467,19 +3467,19 @@
         <v>111863</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>95170</v>
+        <v>94660</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>131286</v>
+        <v>129610</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3301327737697862</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.280870344417499</v>
+        <v>0.2793653121953891</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3874551494166894</v>
+        <v>0.3825094467085239</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>239</v>
@@ -3488,19 +3488,19 @@
         <v>245769</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>221280</v>
+        <v>221599</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>270561</v>
+        <v>272221</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3707549150701827</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3338126935201896</v>
+        <v>0.3342941208335136</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4081556715680728</v>
+        <v>0.4106597882860946</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>173059</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>154990</v>
+        <v>154093</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>192734</v>
+        <v>194646</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4639439588261711</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4155044041820641</v>
+        <v>0.4130991798748461</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5166882621168361</v>
+        <v>0.5218155338922573</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>206</v>
@@ -3613,19 +3613,19 @@
         <v>214828</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>196144</v>
+        <v>196017</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>233908</v>
+        <v>235756</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.552327582123165</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.504290177327262</v>
+        <v>0.503963530350496</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6013805688713422</v>
+        <v>0.6061317888263277</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>365</v>
@@ -3634,19 +3634,19 @@
         <v>387887</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>358923</v>
+        <v>359249</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>415956</v>
+        <v>417517</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.509059907891989</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.471047219508492</v>
+        <v>0.4714749087656553</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5458964373368591</v>
+        <v>0.5479456867667506</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>199958</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>180283</v>
+        <v>178371</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>218027</v>
+        <v>218924</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5360560411738289</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.483311737883164</v>
+        <v>0.4781844661077426</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5844955958179359</v>
+        <v>0.5869008201251539</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>165</v>
@@ -3684,19 +3684,19 @@
         <v>174123</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>155043</v>
+        <v>153195</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>192807</v>
+        <v>192934</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.447672417876835</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3986194311286581</v>
+        <v>0.3938682111736735</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.495709822672738</v>
+        <v>0.4960364696495044</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>349</v>
@@ -3705,19 +3705,19 @@
         <v>374081</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>346012</v>
+        <v>344451</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>403045</v>
+        <v>402719</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4909400921080111</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4541035626631409</v>
+        <v>0.4520543132332495</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.528952780491508</v>
+        <v>0.5285250912343447</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>112136</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96888</v>
+        <v>99225</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>127356</v>
+        <v>128535</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.527407200046251</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4556894035137941</v>
+        <v>0.4666841174515037</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.598990736859944</v>
+        <v>0.6045369788570806</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>140</v>
@@ -3830,19 +3830,19 @@
         <v>147123</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>132056</v>
+        <v>133172</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>160672</v>
+        <v>161446</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6699882800442528</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6013712164746704</v>
+        <v>0.6064535084577106</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7316853380752982</v>
+        <v>0.7352143015054986</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>244</v>
@@ -3851,19 +3851,19 @@
         <v>259260</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>238354</v>
+        <v>238836</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>279461</v>
+        <v>279026</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5998478921330884</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5514779284855923</v>
+        <v>0.5525935560221268</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.646587443720318</v>
+        <v>0.6455820923039058</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>100482</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>85262</v>
+        <v>84083</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115730</v>
+        <v>113393</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.472592799953749</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.401009263140056</v>
+        <v>0.3954630211429195</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5443105964862059</v>
+        <v>0.5333158825484963</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>72</v>
@@ -3901,19 +3901,19 @@
         <v>72468</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>58919</v>
+        <v>58145</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>87535</v>
+        <v>86419</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3300117199557471</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2683146619247018</v>
+        <v>0.2647856984945012</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3986287835253292</v>
+        <v>0.3935464915422893</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>164</v>
@@ -3922,19 +3922,19 @@
         <v>172949</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>152748</v>
+        <v>153183</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>193855</v>
+        <v>193373</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4001521078669115</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.353412556279682</v>
+        <v>0.3544179076960945</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4485220715144076</v>
+        <v>0.4474064439778732</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>161058</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>143106</v>
+        <v>144677</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>178171</v>
+        <v>179538</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5901150813996912</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5243378611073677</v>
+        <v>0.5300934394378443</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6528157894312165</v>
+        <v>0.6578250910673999</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>181</v>
@@ -4047,19 +4047,19 @@
         <v>186589</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>170570</v>
+        <v>171061</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>201978</v>
+        <v>202433</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6738433343147323</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6159955106396822</v>
+        <v>0.6177658018757645</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7294197118112087</v>
+        <v>0.7310627747658739</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>335</v>
@@ -4068,19 +4068,19 @@
         <v>347647</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>323764</v>
+        <v>326444</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>370033</v>
+        <v>373296</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6322818122309256</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5888452251341522</v>
+        <v>0.5937193195526608</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6729960838481107</v>
+        <v>0.6789303907550946</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>111869</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>94756</v>
+        <v>93389</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>129821</v>
+        <v>128250</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4098849186003088</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3471842105687836</v>
+        <v>0.3421749089326001</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4756621388926324</v>
+        <v>0.4699065605621558</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>85</v>
@@ -4118,19 +4118,19 @@
         <v>90313</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>74924</v>
+        <v>74469</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>106332</v>
+        <v>105841</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3261566656852677</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2705802881887913</v>
+        <v>0.268937225234126</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3840044893603178</v>
+        <v>0.3822341981242355</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>191</v>
@@ -4139,19 +4139,19 @@
         <v>202182</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>179796</v>
+        <v>176533</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>226065</v>
+        <v>223385</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3677181877690744</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3270039161518894</v>
+        <v>0.3210696092449055</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4111547748658479</v>
+        <v>0.4062806804473392</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>364106</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>337905</v>
+        <v>338082</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>389257</v>
+        <v>391358</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5546752941408112</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5147607815582474</v>
+        <v>0.5150311122190135</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5929897100791536</v>
+        <v>0.5961907622381758</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>378</v>
@@ -4264,19 +4264,19 @@
         <v>416087</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>390912</v>
+        <v>387390</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>440222</v>
+        <v>442163</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6092876708573182</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.572423931228912</v>
+        <v>0.5672659081292526</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6446289810106164</v>
+        <v>0.6474719295599511</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>712</v>
@@ -4285,19 +4285,19 @@
         <v>780192</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>742286</v>
+        <v>738972</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>816212</v>
+        <v>817223</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5825212714415573</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5542187675361988</v>
+        <v>0.5517444514641751</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6094149475681845</v>
+        <v>0.6101699688802954</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>292325</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>267174</v>
+        <v>265073</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>318526</v>
+        <v>318349</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4453247058591888</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4070102899208465</v>
+        <v>0.4038092377618241</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4852392184417524</v>
+        <v>0.4849688877809863</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>249</v>
@@ -4335,19 +4335,19 @@
         <v>266820</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>242685</v>
+        <v>240744</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>291995</v>
+        <v>295517</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3907123291426818</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3553710189893836</v>
+        <v>0.3525280704400489</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4275760687710877</v>
+        <v>0.4327340918707474</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>527</v>
@@ -4356,19 +4356,19 @@
         <v>559145</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>523125</v>
+        <v>522114</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>597051</v>
+        <v>600365</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4174787285584428</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3905850524318155</v>
+        <v>0.3898300311197047</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4457812324638023</v>
+        <v>0.4482555485358251</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>665299</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>642279</v>
+        <v>644404</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>681786</v>
+        <v>683399</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8573584641308103</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8276930307928307</v>
+        <v>0.8304315753562551</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.87860486356249</v>
+        <v>0.8806829566652776</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>632</v>
@@ -4481,19 +4481,19 @@
         <v>685738</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>663230</v>
+        <v>663192</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>707523</v>
+        <v>707250</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8335289995851922</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.806170092641918</v>
+        <v>0.806124195159331</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8600091462595251</v>
+        <v>0.8596773490651629</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1239</v>
@@ -4502,19 +4502,19 @@
         <v>1351037</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1318348</v>
+        <v>1317331</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1379572</v>
+        <v>1378627</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8450956428509329</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8246484340385715</v>
+        <v>0.824011925061043</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8629448160652917</v>
+        <v>0.8623536433505742</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>110688</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>94201</v>
+        <v>92588</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>133708</v>
+        <v>131583</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1426415358691897</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.12139513643751</v>
+        <v>0.1193170433347225</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1723069692071691</v>
+        <v>0.1695684246437449</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>124</v>
@@ -4552,19 +4552,19 @@
         <v>136954</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>115169</v>
+        <v>115442</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>159462</v>
+        <v>159500</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1664710004148078</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1399908537404749</v>
+        <v>0.1403226509348371</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1938299073580819</v>
+        <v>0.1938758048406692</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>231</v>
@@ -4573,19 +4573,19 @@
         <v>247642</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>219107</v>
+        <v>220052</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>280331</v>
+        <v>281348</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1549043571490671</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1370551839347083</v>
+        <v>0.1376463566494258</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1753515659614286</v>
+        <v>0.175988074938957</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>2109487</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2053656</v>
+        <v>2049916</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2165171</v>
+        <v>2170096</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6193892369902723</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6029960460006787</v>
+        <v>0.6018979610086747</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6357393794090347</v>
+        <v>0.6371852831719508</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2185</v>
@@ -4698,19 +4698,19 @@
         <v>2360541</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2305234</v>
+        <v>2304800</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2423483</v>
+        <v>2416648</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6683320465594166</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6526731003065218</v>
+        <v>0.6525502219221899</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6861527292827271</v>
+        <v>0.6842175634522175</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4148</v>
@@ -4719,19 +4719,19 @@
         <v>4470028</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4392499</v>
+        <v>4384673</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4549083</v>
+        <v>4551145</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6443059113127384</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6331310428957156</v>
+        <v>0.6320030170039668</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6557008300055926</v>
+        <v>0.6559980911274189</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1296266</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1240582</v>
+        <v>1235657</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1352097</v>
+        <v>1355837</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3806107630097277</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3642606205909653</v>
+        <v>0.3628147168280493</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3970039539993213</v>
+        <v>0.3981020389913253</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1091</v>
@@ -4769,19 +4769,19 @@
         <v>1171447</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1108505</v>
+        <v>1115340</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1226754</v>
+        <v>1227188</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3316679534405834</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3138472707172731</v>
+        <v>0.3157824365477825</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3473268996934783</v>
+        <v>0.3474497780778104</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2316</v>
@@ -4790,19 +4790,19 @@
         <v>2467713</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2388658</v>
+        <v>2386596</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2545242</v>
+        <v>2553068</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3556940886872616</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3442991699944071</v>
+        <v>0.3440019088725811</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3668689571042842</v>
+        <v>0.3679969829960331</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>193323</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>175962</v>
+        <v>174663</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>209662</v>
+        <v>209391</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6627982489352657</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6032770859527854</v>
+        <v>0.5988217416647617</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7188170424025507</v>
+        <v>0.7178866283359172</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>198</v>
@@ -5159,19 +5159,19 @@
         <v>205880</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>189801</v>
+        <v>189807</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>219103</v>
+        <v>220134</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7241885988695242</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6676319494815196</v>
+        <v>0.667653300426753</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.77070382896975</v>
+        <v>0.7743290143877314</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>374</v>
@@ -5180,19 +5180,19 @@
         <v>399203</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>375050</v>
+        <v>374918</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>418752</v>
+        <v>420943</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6930997046172886</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6511658682371003</v>
+        <v>0.6509363572075487</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7270422527211252</v>
+        <v>0.7308454487456233</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>98354</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>82015</v>
+        <v>82286</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>115715</v>
+        <v>117014</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3372017510647342</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2811829575974493</v>
+        <v>0.2821133716640828</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3967229140472146</v>
+        <v>0.4011782583352389</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>75</v>
@@ -5230,19 +5230,19 @@
         <v>78410</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>65187</v>
+        <v>64156</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>94489</v>
+        <v>94483</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2758114011304758</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.22929617103025</v>
+        <v>0.2256709856122686</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3323680505184805</v>
+        <v>0.3323466995732469</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>163</v>
@@ -5251,19 +5251,19 @@
         <v>176764</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>157215</v>
+        <v>155024</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>200917</v>
+        <v>201049</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3069002953827114</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2729577472788748</v>
+        <v>0.2691545512543768</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3488341317628996</v>
+        <v>0.3490636427924513</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>404233</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>385290</v>
+        <v>384194</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>421863</v>
+        <v>420646</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8075303177011337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7696878110660905</v>
+        <v>0.7675000158115814</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8427496452565204</v>
+        <v>0.8403187093022068</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>387</v>
@@ -5376,19 +5376,19 @@
         <v>422905</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>403352</v>
+        <v>403068</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>440138</v>
+        <v>439705</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.811461402134186</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7739435191589751</v>
+        <v>0.7733980155438701</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8445263696496759</v>
+        <v>0.8436969168398369</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>769</v>
@@ -5397,19 +5397,19 @@
         <v>827137</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>801660</v>
+        <v>801303</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>854458</v>
+        <v>852620</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8095354619822525</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7846003215233808</v>
+        <v>0.7842510670954111</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8362752601473566</v>
+        <v>0.8344760991578226</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>96346</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>78716</v>
+        <v>79933</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>115289</v>
+        <v>116385</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1924696822988663</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1572503547434798</v>
+        <v>0.159681290697793</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2303121889339097</v>
+        <v>0.2324999841884185</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>95</v>
@@ -5447,19 +5447,19 @@
         <v>98260</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>81027</v>
+        <v>81460</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>117813</v>
+        <v>118097</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1885385978658139</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1554736303503242</v>
+        <v>0.156303083160163</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.226056480841025</v>
+        <v>0.2266019844561298</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>186</v>
@@ -5468,19 +5468,19 @@
         <v>194606</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>167285</v>
+        <v>169123</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>220083</v>
+        <v>220440</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1904645380177475</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1637247398526433</v>
+        <v>0.1655239008421774</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2153996784766192</v>
+        <v>0.2157489329045889</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>229718</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>213240</v>
+        <v>213769</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>244951</v>
+        <v>243802</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7254422670179224</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6734054833338274</v>
+        <v>0.6750767062311155</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7735482436312375</v>
+        <v>0.7699195746857314</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>251</v>
@@ -5593,19 +5593,19 @@
         <v>255457</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>240556</v>
+        <v>239554</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>270576</v>
+        <v>269859</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7615930641550692</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7171682820217998</v>
+        <v>0.71417939846961</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.806667143244874</v>
+        <v>0.8045275285237821</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>494</v>
@@ -5614,19 +5614,19 @@
         <v>485175</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>463783</v>
+        <v>463853</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>507266</v>
+        <v>507109</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7440378359907832</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7112318726944523</v>
+        <v>0.7113395714493559</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7779152879934247</v>
+        <v>0.7776745298490245</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>86941</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>71708</v>
+        <v>72857</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>103419</v>
+        <v>102890</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2745577329820776</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2264517563687626</v>
+        <v>0.2300804253142687</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3265945166661727</v>
+        <v>0.3249232937688846</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>80</v>
@@ -5664,19 +5664,19 @@
         <v>79968</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>64849</v>
+        <v>65566</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>94869</v>
+        <v>95871</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2384069358449308</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1933328567551259</v>
+        <v>0.1954724714762179</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2828317179782001</v>
+        <v>0.2858206015303899</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>170</v>
@@ -5685,19 +5685,19 @@
         <v>166909</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>144818</v>
+        <v>144975</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>188301</v>
+        <v>188231</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2559621640092168</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2220847120065753</v>
+        <v>0.2223254701509755</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2887681273055476</v>
+        <v>0.2886604285506441</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>131397</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>113094</v>
+        <v>113135</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>150884</v>
+        <v>151473</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3561812918693977</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3065646074119965</v>
+        <v>0.3066776241513077</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4090028195820486</v>
+        <v>0.4106006857648486</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>138</v>
@@ -5810,19 +5810,19 @@
         <v>152194</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>132358</v>
+        <v>133235</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>172685</v>
+        <v>173455</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3939186140555593</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3425788386145511</v>
+        <v>0.3448474278762822</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4469557081563331</v>
+        <v>0.4489486923585975</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>260</v>
@@ -5831,19 +5831,19 @@
         <v>283591</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>254843</v>
+        <v>255699</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>312022</v>
+        <v>310127</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3754859851827742</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3374226950966457</v>
+        <v>0.3385562784032111</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4131294969748149</v>
+        <v>0.410620391928438</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>237509</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>218022</v>
+        <v>217433</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>255812</v>
+        <v>255771</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6438187081306024</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5909971804179514</v>
+        <v>0.5893993142351516</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6934353925880038</v>
+        <v>0.6933223758486923</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>219</v>
@@ -5881,19 +5881,19 @@
         <v>234165</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>213674</v>
+        <v>212904</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>254001</v>
+        <v>253124</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6060813859444407</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5530442918436669</v>
+        <v>0.5510513076414025</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6574211613854488</v>
+        <v>0.6551525721237178</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>450</v>
@@ -5902,19 +5902,19 @@
         <v>471673</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>443242</v>
+        <v>445137</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>500421</v>
+        <v>499565</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6245140148172258</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.586870503025185</v>
+        <v>0.589379608071562</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6625773049033542</v>
+        <v>0.6614437215967889</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>178498</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>167282</v>
+        <v>166958</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>187632</v>
+        <v>187684</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8493644312088579</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7959939157343733</v>
+        <v>0.7944524101844832</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8928274722742794</v>
+        <v>0.8930752296488667</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>191</v>
@@ -6027,19 +6027,19 @@
         <v>187662</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>175793</v>
+        <v>176363</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>197154</v>
+        <v>196547</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8585208805737168</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8042222108164541</v>
+        <v>0.8068329387444014</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9019495350663086</v>
+        <v>0.8991683060918074</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>371</v>
@@ -6048,19 +6048,19 @@
         <v>366160</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>349626</v>
+        <v>350589</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>380002</v>
+        <v>380923</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8540326928037938</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8154686086791871</v>
+        <v>0.817714496899888</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8863191793937714</v>
+        <v>0.888466994904261</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>31657</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22523</v>
+        <v>22471</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42873</v>
+        <v>43197</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1506355687911422</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1071725277257206</v>
+        <v>0.1069247703511334</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2040060842656265</v>
+        <v>0.2055475898155172</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -6098,19 +6098,19 @@
         <v>30925</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21433</v>
+        <v>22040</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>42794</v>
+        <v>42224</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1414791194262833</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09805046493369085</v>
+        <v>0.100831693908193</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1957777891835455</v>
+        <v>0.1931670612555988</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>63</v>
@@ -6119,19 +6119,19 @@
         <v>62582</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>48740</v>
+        <v>47819</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>79116</v>
+        <v>78153</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1459673071962062</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1136808206062286</v>
+        <v>0.1115330050957391</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1845313913208129</v>
+        <v>0.1822855031001121</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>190853</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>175782</v>
+        <v>176464</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>204972</v>
+        <v>206115</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.725339007111527</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6680597707567089</v>
+        <v>0.6706504239171323</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7789953901936575</v>
+        <v>0.7833417716327475</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>201</v>
@@ -6244,19 +6244,19 @@
         <v>209942</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>195188</v>
+        <v>193154</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>223370</v>
+        <v>224405</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7686962696980472</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7146734584963891</v>
+        <v>0.7072260928285674</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8178596068665634</v>
+        <v>0.8216503799344517</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>388</v>
@@ -6265,19 +6265,19 @@
         <v>400796</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>382052</v>
+        <v>380606</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>422273</v>
+        <v>420970</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7474215876050172</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7124679158657153</v>
+        <v>0.7097710372532052</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7874739174058228</v>
+        <v>0.7850428224192647</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>72270</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58151</v>
+        <v>57008</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87341</v>
+        <v>86659</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.274660992888473</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2210046098063425</v>
+        <v>0.2166582283672522</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.331940229243291</v>
+        <v>0.3293495760828677</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>62</v>
@@ -6315,19 +6315,19 @@
         <v>63173</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49745</v>
+        <v>48710</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>77927</v>
+        <v>79961</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2313037303019528</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1821403931334371</v>
+        <v>0.1783496200655484</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.285326541503611</v>
+        <v>0.292773907171433</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>134</v>
@@ -6336,19 +6336,19 @@
         <v>135442</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>113965</v>
+        <v>115268</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>154186</v>
+        <v>155632</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2525784123949827</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2125260825941771</v>
+        <v>0.2149571775807353</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2875320841342845</v>
+        <v>0.2902289627467947</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>515620</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>493418</v>
+        <v>493898</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>535888</v>
+        <v>536529</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7896298789428897</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7556296551554899</v>
+        <v>0.7563643736250244</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8206698754243555</v>
+        <v>0.821650463797242</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>488</v>
@@ -6461,19 +6461,19 @@
         <v>522531</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>500587</v>
+        <v>496908</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>543598</v>
+        <v>545122</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7660537587445664</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7338819699090952</v>
+        <v>0.7284887866737659</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7969383803414504</v>
+        <v>0.7991727683792298</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>943</v>
@@ -6482,19 +6482,19 @@
         <v>1038151</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1004228</v>
+        <v>1007203</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1070309</v>
+        <v>1068511</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7775847244685913</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7521760320292745</v>
+        <v>0.7544045227948269</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8016714745756546</v>
+        <v>0.8003243367816313</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>137369</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>117101</v>
+        <v>116460</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>159571</v>
+        <v>159091</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2103701210571103</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1793301245756445</v>
+        <v>0.1783495362027579</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2443703448445102</v>
+        <v>0.2436356263749756</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>150</v>
@@ -6532,19 +6532,19 @@
         <v>159577</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>138510</v>
+        <v>136986</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>181521</v>
+        <v>185200</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2339462412554336</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2030616196585495</v>
+        <v>0.2008272316207702</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2661180300909048</v>
+        <v>0.2715112133262341</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>272</v>
@@ -6553,19 +6553,19 @@
         <v>296946</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>264788</v>
+        <v>266586</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>330869</v>
+        <v>327894</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2224152755314088</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1983285254243451</v>
+        <v>0.1996756632183687</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2478239679707251</v>
+        <v>0.245595477205173</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>654811</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>634905</v>
+        <v>630298</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>675714</v>
+        <v>673894</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8449873930939951</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8192997407240585</v>
+        <v>0.8133551375768372</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8719610876689371</v>
+        <v>0.8696127783676912</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>663</v>
@@ -6678,19 +6678,19 @@
         <v>726395</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>706256</v>
+        <v>707105</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>742720</v>
+        <v>745780</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8806346651219917</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8562196101344934</v>
+        <v>0.8572491314367259</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9004261036214278</v>
+        <v>0.9041354597068068</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1297</v>
@@ -6699,19 +6699,19 @@
         <v>1381206</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1352183</v>
+        <v>1350148</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1407234</v>
+        <v>1406918</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8633671719893724</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.845225104371532</v>
+        <v>0.8439533187590712</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8796368443710572</v>
+        <v>0.8794390506452968</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>120125</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>99222</v>
+        <v>101042</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>140031</v>
+        <v>144638</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1550126069060049</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1280389123310628</v>
+        <v>0.1303872216323085</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1807002592759412</v>
+        <v>0.186644862423162</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>91</v>
@@ -6749,19 +6749,19 @@
         <v>98459</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>82134</v>
+        <v>79074</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>118598</v>
+        <v>117749</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1193653348780083</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09957389637857199</v>
+        <v>0.09586454029319313</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1437803898655063</v>
+        <v>0.142750868563274</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>204</v>
@@ -6770,19 +6770,19 @@
         <v>218584</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>192556</v>
+        <v>192872</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>247607</v>
+        <v>249642</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1366328280106276</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1203631556289425</v>
+        <v>0.120560949354703</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.154774895628468</v>
+        <v>0.1560466812409287</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>2498453</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2450664</v>
+        <v>2442142</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2553181</v>
+        <v>2551423</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7394009288049429</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7252579731361181</v>
+        <v>0.722735961558566</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7555973161638432</v>
+        <v>0.7550769432122362</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2517</v>
@@ -6895,19 +6895,19 @@
         <v>2682965</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2628031</v>
+        <v>2634274</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2732095</v>
+        <v>2734394</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7609303694764847</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7453501026931323</v>
+        <v>0.7471208737010667</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7748644464845192</v>
+        <v>0.7755165052232785</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4896</v>
@@ -6916,19 +6916,19 @@
         <v>5181419</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5104294</v>
+        <v>5103655</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5255444</v>
+        <v>5261931</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7503946286360461</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7392249884458382</v>
+        <v>0.7391325362013541</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.761115136322835</v>
+        <v>0.7620546231573023</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>880571</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>825843</v>
+        <v>827601</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>928360</v>
+        <v>936882</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2605990711950571</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2444026838361568</v>
+        <v>0.2449230567877639</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2747420268638819</v>
+        <v>0.2772640384414341</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>804</v>
@@ -6966,19 +6966,19 @@
         <v>842936</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>793806</v>
+        <v>791507</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>897870</v>
+        <v>891627</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2390696305235153</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2251355535154808</v>
+        <v>0.2244834947767214</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2546498973068676</v>
+        <v>0.2528791262989333</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1642</v>
@@ -6987,19 +6987,19 @@
         <v>1723507</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1649482</v>
+        <v>1642995</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1800632</v>
+        <v>1801271</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2496053713639539</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2388848636771651</v>
+        <v>0.2379453768426977</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2607750115541619</v>
+        <v>0.2608674637986459</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>155968</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>138012</v>
+        <v>137413</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>174875</v>
+        <v>174868</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4945555160197211</v>
+        <v>0.4945555160197213</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4376168918904857</v>
+        <v>0.4357170283030056</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5545042720668453</v>
+        <v>0.5544827085026247</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>287</v>
@@ -7356,19 +7356,19 @@
         <v>167779</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>153146</v>
+        <v>153080</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>182653</v>
+        <v>182369</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5356558372116749</v>
+        <v>0.535655837211675</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4889385291805546</v>
+        <v>0.4887283426471985</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5831426545983929</v>
+        <v>0.5822364808582431</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>453</v>
@@ -7377,19 +7377,19 @@
         <v>323747</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>299200</v>
+        <v>301201</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>346020</v>
+        <v>347563</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5150353817051935</v>
+        <v>0.5150353817051936</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4759853267911525</v>
+        <v>0.4791684180660847</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5504698018116029</v>
+        <v>0.5529237536337448</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>159403</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>140496</v>
+        <v>140503</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>177359</v>
+        <v>177958</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5054444839802787</v>
+        <v>0.5054444839802789</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4454957279331548</v>
+        <v>0.4455172914973753</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5623831081095144</v>
+        <v>0.5642829716969942</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>246</v>
@@ -7427,19 +7427,19 @@
         <v>145442</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>130568</v>
+        <v>130852</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>160075</v>
+        <v>160141</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4643441627883252</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4168573454016073</v>
+        <v>0.417763519141757</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5110614708194453</v>
+        <v>0.5112716573528017</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>407</v>
@@ -7448,19 +7448,19 @@
         <v>304844</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>282571</v>
+        <v>281028</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>329391</v>
+        <v>327390</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4849646182948065</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4495301981883971</v>
+        <v>0.4470762463662552</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5240146732088475</v>
+        <v>0.5208315819339154</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>297078</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>266828</v>
+        <v>269663</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>327227</v>
+        <v>323104</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5598414839693967</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5028347783446452</v>
+        <v>0.5081786095930816</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6166572929354807</v>
+        <v>0.6088869028243677</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>389</v>
@@ -7573,19 +7573,19 @@
         <v>287272</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>265745</v>
+        <v>265198</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>310046</v>
+        <v>307546</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5279726883207886</v>
+        <v>0.5279726883207885</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4884089768162583</v>
+        <v>0.4874041957666079</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5698297978166857</v>
+        <v>0.5652353905832925</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>606</v>
@@ -7594,19 +7594,19 @@
         <v>584350</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>546861</v>
+        <v>549428</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>619039</v>
+        <v>619789</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5437075801427591</v>
+        <v>0.543707580142759</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5088258126468693</v>
+        <v>0.5112147660031552</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5759843221882985</v>
+        <v>0.5766823195376641</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>233569</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>203420</v>
+        <v>207543</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>263819</v>
+        <v>260984</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4401585160306033</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3833427070645192</v>
+        <v>0.3911130971756321</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.497165221655355</v>
+        <v>0.4918213904069183</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>324</v>
@@ -7644,19 +7644,19 @@
         <v>256831</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>234057</v>
+        <v>236557</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>278358</v>
+        <v>278905</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4720273116792115</v>
+        <v>0.4720273116792114</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4301702021833143</v>
+        <v>0.4347646094167075</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5115910231837416</v>
+        <v>0.5125958042333921</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>489</v>
@@ -7665,19 +7665,19 @@
         <v>490400</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>455711</v>
+        <v>454961</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>527889</v>
+        <v>525322</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4562924198572411</v>
+        <v>0.4562924198572409</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4240156778117015</v>
+        <v>0.4233176804623359</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4911741873531307</v>
+        <v>0.4887852339968448</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>122940</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107477</v>
+        <v>106459</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138921</v>
+        <v>137583</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4046299069001682</v>
+        <v>0.4046299069001681</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3537370216360565</v>
+        <v>0.3503879276821331</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4572276836922669</v>
+        <v>0.4528234627047414</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>258</v>
@@ -7790,19 +7790,19 @@
         <v>163319</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>147291</v>
+        <v>146934</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>177927</v>
+        <v>178138</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4800263674870814</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4329175788556275</v>
+        <v>0.4318687708551756</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5229632315020396</v>
+        <v>0.5235812266412324</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>410</v>
@@ -7811,19 +7811,19 @@
         <v>286259</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>264196</v>
+        <v>264013</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>309092</v>
+        <v>307679</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4444584989019746</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4102028091732652</v>
+        <v>0.4099192864650332</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4799104643987028</v>
+        <v>0.4777171967527341</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>180893</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>164912</v>
+        <v>166250</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>196356</v>
+        <v>197374</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5953700930998318</v>
+        <v>0.5953700930998319</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5427723163077331</v>
+        <v>0.5471765372952586</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6462629783639436</v>
+        <v>0.649612072317867</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>250</v>
@@ -7861,19 +7861,19 @@
         <v>176910</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>162302</v>
+        <v>162091</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>192938</v>
+        <v>193295</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5199736325129185</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4770367684979602</v>
+        <v>0.4764187733587675</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5670824211443724</v>
+        <v>0.5681312291448243</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>443</v>
@@ -7882,19 +7882,19 @@
         <v>357803</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>334970</v>
+        <v>336383</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>379866</v>
+        <v>380049</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5555415010980252</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5200895356012971</v>
+        <v>0.5222828032472659</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5897971908267349</v>
+        <v>0.5900807135349666</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>93134</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74078</v>
+        <v>74351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113237</v>
+        <v>114713</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2528130780663732</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2010874084884706</v>
+        <v>0.2018273396857106</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3073835272926448</v>
+        <v>0.3113908598030166</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>195</v>
@@ -8007,19 +8007,19 @@
         <v>126339</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>110456</v>
+        <v>110138</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142862</v>
+        <v>146381</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3024780839781274</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.264450348350647</v>
+        <v>0.2636895337617001</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3420361572676363</v>
+        <v>0.3504605215272772</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>280</v>
@@ -8028,19 +8028,19 @@
         <v>219473</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>194911</v>
+        <v>193623</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>246319</v>
+        <v>247060</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2792027477090201</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2479555687173904</v>
+        <v>0.2463170903596943</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.313354961555515</v>
+        <v>0.3142974354459875</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>275255</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>255152</v>
+        <v>253676</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>294311</v>
+        <v>294038</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7471869219336268</v>
+        <v>0.7471869219336269</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6926164727073552</v>
+        <v>0.6886091401969835</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7989125915115294</v>
+        <v>0.7981726603142895</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>397</v>
@@ -8078,19 +8078,19 @@
         <v>291342</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>274819</v>
+        <v>271300</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>307225</v>
+        <v>307543</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6975219160218727</v>
+        <v>0.6975219160218726</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6579638427323637</v>
+        <v>0.6495394784727229</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7355496516493533</v>
+        <v>0.7363104662383</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>601</v>
@@ -8099,19 +8099,19 @@
         <v>566598</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>539752</v>
+        <v>539011</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>591160</v>
+        <v>592448</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7207972522909798</v>
+        <v>0.7207972522909799</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6866450384444849</v>
+        <v>0.6857025645540129</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7520444312826093</v>
+        <v>0.7536829096403059</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>186369</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>176238</v>
+        <v>176098</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>193424</v>
+        <v>193619</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9094257835646395</v>
+        <v>0.9094257835646397</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8599889225265382</v>
+        <v>0.8593065924575899</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9438548374924968</v>
+        <v>0.9448071267815086</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>453</v>
@@ -8224,19 +8224,19 @@
         <v>207988</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>199532</v>
+        <v>199914</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>213216</v>
+        <v>213182</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9169606901741906</v>
+        <v>0.9169606901741905</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8796810360247188</v>
+        <v>0.881367052183321</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9400102699570495</v>
+        <v>0.9398604570023528</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>711</v>
@@ -8245,19 +8245,19 @@
         <v>394356</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>382327</v>
+        <v>381248</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>404024</v>
+        <v>404006</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9133842767826301</v>
+        <v>0.91338427678263</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8855219082192343</v>
+        <v>0.8830233210078559</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9357760771988219</v>
+        <v>0.9357340045946329</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>18561</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11506</v>
+        <v>11311</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28692</v>
+        <v>28832</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09057421643536046</v>
+        <v>0.09057421643536043</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05614516250750339</v>
+        <v>0.05519287321849128</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1400110774734619</v>
+        <v>0.1406934075424103</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -8295,19 +8295,19 @@
         <v>18835</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13607</v>
+        <v>13641</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27291</v>
+        <v>26909</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.08303930982580948</v>
+        <v>0.08303930982580945</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05998973004295059</v>
+        <v>0.06013954299764723</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.120318963975281</v>
+        <v>0.118632947816679</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>58</v>
@@ -8316,19 +8316,19 @@
         <v>37397</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27729</v>
+        <v>27747</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49426</v>
+        <v>50505</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08661572321736986</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06422392280117827</v>
+        <v>0.06426599540536714</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1144780917807658</v>
+        <v>0.1169766789921441</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>101591</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>87905</v>
+        <v>89847</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>116038</v>
+        <v>115632</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3759828226285448</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.325334658238608</v>
+        <v>0.3325220352007101</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4294535296988029</v>
+        <v>0.4279499508310765</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>213</v>
@@ -8441,19 +8441,19 @@
         <v>100043</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>89021</v>
+        <v>87159</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>113426</v>
+        <v>112559</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3793108031407735</v>
+        <v>0.3793108031407734</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3375209719081386</v>
+        <v>0.330459693286998</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4300512945553533</v>
+        <v>0.4267631422620592</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>377</v>
@@ -8462,19 +8462,19 @@
         <v>201634</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>183505</v>
+        <v>183345</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>220802</v>
+        <v>219152</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3776267145201806</v>
+        <v>0.3776267145201807</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3436746487098151</v>
+        <v>0.3433754199423376</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.413525017236897</v>
+        <v>0.4104358766623866</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>168609</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>154162</v>
+        <v>154568</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>182295</v>
+        <v>180353</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6240171773714552</v>
+        <v>0.6240171773714551</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5705464703011971</v>
+        <v>0.5720500491689237</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6746653417613919</v>
+        <v>0.66747796479929</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>247</v>
@@ -8512,19 +8512,19 @@
         <v>163707</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>150324</v>
+        <v>151191</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>174729</v>
+        <v>176591</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6206891968592266</v>
+        <v>0.6206891968592265</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5699487054446466</v>
+        <v>0.5732368577379406</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6624790280918613</v>
+        <v>0.6695403067130019</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>453</v>
@@ -8533,19 +8533,19 @@
         <v>332316</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>313148</v>
+        <v>314798</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>350445</v>
+        <v>350605</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6223732854798193</v>
+        <v>0.6223732854798195</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5864749827631031</v>
+        <v>0.589564123337613</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6563253512901849</v>
+        <v>0.6566245800576622</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>394662</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>363227</v>
+        <v>361524</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>425303</v>
+        <v>426559</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5511060458051702</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.507210162074167</v>
+        <v>0.5048319360168926</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5938932217625001</v>
+        <v>0.59564658151198</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>514</v>
@@ -8658,19 +8658,19 @@
         <v>403084</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>376488</v>
+        <v>376023</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>427645</v>
+        <v>428337</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5271029929256068</v>
+        <v>0.5271029929256067</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4923234387027732</v>
+        <v>0.4917161535892999</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5592204248644105</v>
+        <v>0.5601249534743136</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>858</v>
@@ -8679,19 +8679,19 @@
         <v>797746</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>760230</v>
+        <v>754929</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>838116</v>
+        <v>841904</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5387107262687117</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.51337668759983</v>
+        <v>0.5097970491451871</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5659722280857271</v>
+        <v>0.5685299754060839</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>321465</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>290824</v>
+        <v>289568</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>352900</v>
+        <v>354603</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4488939541948299</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4061067782374999</v>
+        <v>0.4043534184880199</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4927898379258327</v>
+        <v>0.4951680639831075</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>436</v>
@@ -8729,19 +8729,19 @@
         <v>361632</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>337071</v>
+        <v>336379</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>388228</v>
+        <v>388693</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.4728970070743932</v>
+        <v>0.4728970070743931</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4407795751355895</v>
+        <v>0.4398750465256869</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5076765612972268</v>
+        <v>0.5082838464107002</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>688</v>
@@ -8750,19 +8750,19 @@
         <v>683097</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>642727</v>
+        <v>638939</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>720613</v>
+        <v>725914</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4612892737312883</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4340277719142728</v>
+        <v>0.4314700245939161</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4866233124001699</v>
+        <v>0.4902029508548127</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>645295</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>620039</v>
+        <v>618404</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>667769</v>
+        <v>669099</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.8125632039230002</v>
+        <v>0.8125632039230003</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7807604942432886</v>
+        <v>0.7787023883061793</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8408628697033385</v>
+        <v>0.8425377738775026</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>904</v>
@@ -8875,19 +8875,19 @@
         <v>696338</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>676018</v>
+        <v>676732</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>715349</v>
+        <v>715894</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.840952035890689</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.816411977756869</v>
+        <v>0.8172748403691259</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.863911152034599</v>
+        <v>0.8645701407543811</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1540</v>
@@ -8896,19 +8896,19 @@
         <v>1341632</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1306222</v>
+        <v>1308956</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1371609</v>
+        <v>1372082</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.8270541503922169</v>
+        <v>0.827054150392217</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8052252001490006</v>
+        <v>0.8069105689615866</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8455331929524957</v>
+        <v>0.8458252235235536</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>148852</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>126378</v>
+        <v>125048</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>174108</v>
+        <v>175743</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1874367960769998</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1591371302966615</v>
+        <v>0.1574622261224973</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2192395057567113</v>
+        <v>0.2212976116938207</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>154</v>
@@ -8946,19 +8946,19 @@
         <v>131697</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>112686</v>
+        <v>112141</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>152017</v>
+        <v>151303</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.159047964109311</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1360888479654012</v>
+        <v>0.1354298592456191</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.183588022243131</v>
+        <v>0.1827251596308743</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>277</v>
@@ -8967,19 +8967,19 @@
         <v>280550</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>250573</v>
+        <v>250100</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>315960</v>
+        <v>313226</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.172945849607783</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.154466807047504</v>
+        <v>0.1541747764764465</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.194774799850999</v>
+        <v>0.1930894310384134</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1997035</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1930290</v>
+        <v>1921374</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2057387</v>
+        <v>2057390</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5699882276435326</v>
+        <v>0.5699882276435325</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5509378898548398</v>
+        <v>0.5483933131303629</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.587213656398439</v>
+        <v>0.5872145850178613</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3213</v>
@@ -9092,19 +9092,19 @@
         <v>2152162</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2097022</v>
+        <v>2101569</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2205035</v>
+        <v>2206556</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.581891963180407</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5669832489508545</v>
+        <v>0.5682126630211883</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5961874028443134</v>
+        <v>0.5965986044490023</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5235</v>
@@ -9113,19 +9113,19 @@
         <v>4149198</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4064920</v>
+        <v>4066238</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4243235</v>
+        <v>4231942</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.57610117350936</v>
+        <v>0.5761011735093599</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5643995916345295</v>
+        <v>0.5645825786395119</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5891579818358557</v>
+        <v>0.5875899590350148</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>1506608</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1446256</v>
+        <v>1446253</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1573353</v>
+        <v>1582269</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4300117723564674</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4127863436015611</v>
+        <v>0.4127854149821387</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4490621101451602</v>
+        <v>0.4516066868696372</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2092</v>
@@ -9163,19 +9163,19 @@
         <v>1546398</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1493525</v>
+        <v>1492004</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1601538</v>
+        <v>1596991</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.4181080368195929</v>
+        <v>0.4181080368195928</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4038125971556865</v>
+        <v>0.4034013955509979</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4330167510491454</v>
+        <v>0.4317873369788116</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3416</v>
@@ -9184,19 +9184,19 @@
         <v>3053005</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2958968</v>
+        <v>2970261</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3137283</v>
+        <v>3135965</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.42389882649064</v>
+        <v>0.4238988264906401</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4108420181641442</v>
+        <v>0.4124100409649852</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4356004083654705</v>
+        <v>0.4354174213604881</v>
       </c>
     </row>
     <row r="30">
